--- a/tables_dataset_paper.xlsx
+++ b/tables_dataset_paper.xlsx
@@ -11,15 +11,16 @@
     <sheet name="Table_3" r:id="rId5" sheetId="3"/>
     <sheet name="Table_4" r:id="rId6" sheetId="4"/>
     <sheet name="Table_5" r:id="rId7" sheetId="5"/>
-    <sheet name="Online-only Table_1" r:id="rId8" sheetId="6"/>
-    <sheet name="Online-only Table_2" r:id="rId9" sheetId="7"/>
-    <sheet name="Online-only Table_3" r:id="rId10" sheetId="8"/>
+    <sheet name="Table_6" r:id="rId8" sheetId="6"/>
+    <sheet name="Online-only Table_1" r:id="rId9" sheetId="7"/>
+    <sheet name="Online-only Table_2" r:id="rId10" sheetId="8"/>
+    <sheet name="Online-only Table_3" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="906">
   <si>
     <t/>
   </si>
@@ -535,6 +536,60 @@
   </si>
   <si>
     <t>t(47.993) = -0.24, p = 0.811</t>
+  </si>
+  <si>
+    <t>Seed region</t>
+  </si>
+  <si>
+    <t>MNI coordinates</t>
+  </si>
+  <si>
+    <t>Size sphere</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Intersection sphere network</t>
+  </si>
+  <si>
+    <t>Dice coefficient</t>
+  </si>
+  <si>
+    <t>Left precuneus</t>
+  </si>
+  <si>
+    <t>Left auditory cortex</t>
+  </si>
+  <si>
+    <t>Right visual cortex</t>
+  </si>
+  <si>
+    <t>(5L, 49P, 40S)</t>
+  </si>
+  <si>
+    <t>(64L, 12P, 2S)</t>
+  </si>
+  <si>
+    <t>(4R, 91P, 3I)</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>somatomotor</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>90.625%</t>
+  </si>
+  <si>
+    <t>84.849%</t>
+  </si>
+  <si>
+    <t>96.97%</t>
   </si>
   <si>
     <t>Occurance</t>
@@ -3467,1448 +3522,66 @@
       <c r="F1" t="s">
         <v>177</v>
       </c>
-      <c r="G1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D2" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" t="s">
-        <v>262</v>
-      </c>
       <c r="E2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J2" t="s">
-        <v>440</v>
-      </c>
-      <c r="K2" t="s">
-        <v>476</v>
-      </c>
-      <c r="L2" t="s">
-        <v>512</v>
+        <v>187</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
+        <v>182</v>
+      </c>
+      <c r="C3" t="n">
+        <v>33.0</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I3" t="s">
-        <v>405</v>
-      </c>
-      <c r="J3" t="s">
-        <v>441</v>
-      </c>
-      <c r="K3" t="s">
-        <v>477</v>
-      </c>
-      <c r="L3" t="s">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" t="s">
-        <v>226</v>
+        <v>183</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33.0</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K4" t="s">
-        <v>478</v>
-      </c>
-      <c r="L4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G5" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" t="s">
-        <v>407</v>
-      </c>
-      <c r="J5" t="s">
-        <v>443</v>
-      </c>
-      <c r="K5" t="s">
-        <v>479</v>
-      </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G6" t="s">
-        <v>334</v>
-      </c>
-      <c r="H6" t="s">
-        <v>372</v>
-      </c>
-      <c r="I6" t="s">
-        <v>408</v>
-      </c>
-      <c r="J6" t="s">
-        <v>444</v>
-      </c>
-      <c r="K6" t="s">
-        <v>480</v>
-      </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H7" t="s">
-        <v>373</v>
-      </c>
-      <c r="I7" t="s">
-        <v>409</v>
-      </c>
-      <c r="J7" t="s">
-        <v>445</v>
-      </c>
-      <c r="K7" t="s">
-        <v>481</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H8" t="s">
-        <v>374</v>
-      </c>
-      <c r="I8" t="s">
-        <v>410</v>
-      </c>
-      <c r="J8" t="s">
-        <v>446</v>
-      </c>
-      <c r="K8" t="s">
-        <v>482</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" t="s">
-        <v>287</v>
-      </c>
-      <c r="F9" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" t="s">
-        <v>337</v>
-      </c>
-      <c r="H9" t="s">
-        <v>375</v>
-      </c>
-      <c r="I9" t="s">
-        <v>411</v>
-      </c>
-      <c r="J9" t="s">
-        <v>447</v>
-      </c>
-      <c r="K9" t="s">
-        <v>483</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F10" t="s">
-        <v>307</v>
-      </c>
-      <c r="G10" t="s">
-        <v>338</v>
-      </c>
-      <c r="H10" t="s">
-        <v>376</v>
-      </c>
-      <c r="I10" t="s">
-        <v>412</v>
-      </c>
-      <c r="J10" t="s">
-        <v>448</v>
-      </c>
-      <c r="K10" t="s">
-        <v>484</v>
-      </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" t="s">
-        <v>308</v>
-      </c>
-      <c r="G11" t="s">
-        <v>339</v>
-      </c>
-      <c r="H11" t="s">
-        <v>377</v>
-      </c>
-      <c r="I11" t="s">
-        <v>413</v>
-      </c>
-      <c r="J11" t="s">
-        <v>449</v>
-      </c>
-      <c r="K11" t="s">
-        <v>485</v>
-      </c>
-      <c r="L11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" t="s">
-        <v>299</v>
-      </c>
-      <c r="G12" t="s">
-        <v>340</v>
-      </c>
-      <c r="H12" t="s">
-        <v>378</v>
-      </c>
-      <c r="I12" t="s">
-        <v>414</v>
-      </c>
-      <c r="J12" t="s">
-        <v>450</v>
-      </c>
-      <c r="K12" t="s">
-        <v>486</v>
-      </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" t="s">
-        <v>299</v>
-      </c>
-      <c r="G13" t="s">
-        <v>341</v>
-      </c>
-      <c r="H13" t="s">
-        <v>379</v>
-      </c>
-      <c r="I13" t="s">
-        <v>415</v>
-      </c>
-      <c r="J13" t="s">
-        <v>451</v>
-      </c>
-      <c r="K13" t="s">
-        <v>487</v>
-      </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" t="s">
-        <v>342</v>
-      </c>
-      <c r="H14" t="s">
-        <v>380</v>
-      </c>
-      <c r="I14" t="s">
-        <v>416</v>
-      </c>
-      <c r="J14" t="s">
-        <v>452</v>
-      </c>
-      <c r="K14" t="s">
-        <v>488</v>
-      </c>
-      <c r="L14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H15" t="s">
-        <v>381</v>
-      </c>
-      <c r="I15" t="s">
-        <v>417</v>
-      </c>
-      <c r="J15" t="s">
-        <v>453</v>
-      </c>
-      <c r="K15" t="s">
-        <v>489</v>
-      </c>
-      <c r="L15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F16" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" t="s">
-        <v>344</v>
-      </c>
-      <c r="H16" t="s">
-        <v>382</v>
-      </c>
-      <c r="I16" t="s">
-        <v>418</v>
-      </c>
-      <c r="J16" t="s">
-        <v>454</v>
-      </c>
-      <c r="K16" t="s">
-        <v>490</v>
-      </c>
-      <c r="L16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" t="s">
-        <v>294</v>
-      </c>
-      <c r="F17" t="s">
-        <v>311</v>
-      </c>
-      <c r="G17" t="s">
-        <v>345</v>
-      </c>
-      <c r="H17" t="s">
-        <v>383</v>
-      </c>
-      <c r="I17" t="s">
-        <v>419</v>
-      </c>
-      <c r="J17" t="s">
-        <v>455</v>
-      </c>
-      <c r="K17" t="s">
-        <v>491</v>
-      </c>
-      <c r="L17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" t="s">
-        <v>312</v>
-      </c>
-      <c r="G18" t="s">
-        <v>346</v>
-      </c>
-      <c r="H18" t="s">
-        <v>384</v>
-      </c>
-      <c r="I18" t="s">
-        <v>420</v>
-      </c>
-      <c r="J18" t="s">
-        <v>456</v>
-      </c>
-      <c r="K18" t="s">
-        <v>492</v>
-      </c>
-      <c r="L18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E19" t="s">
-        <v>287</v>
-      </c>
-      <c r="F19" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" t="s">
-        <v>347</v>
-      </c>
-      <c r="H19" t="s">
-        <v>385</v>
-      </c>
-      <c r="I19" t="s">
-        <v>421</v>
-      </c>
-      <c r="J19" t="s">
-        <v>457</v>
-      </c>
-      <c r="K19" t="s">
-        <v>493</v>
-      </c>
-      <c r="L19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F20" t="s">
-        <v>314</v>
-      </c>
-      <c r="G20" t="s">
-        <v>348</v>
-      </c>
-      <c r="H20" t="s">
-        <v>386</v>
-      </c>
-      <c r="I20" t="s">
-        <v>422</v>
-      </c>
-      <c r="J20" t="s">
-        <v>458</v>
-      </c>
-      <c r="K20" t="s">
-        <v>494</v>
-      </c>
-      <c r="L20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" t="s">
-        <v>243</v>
-      </c>
-      <c r="D21" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F21" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" t="s">
-        <v>349</v>
-      </c>
-      <c r="H21" t="s">
-        <v>387</v>
-      </c>
-      <c r="I21" t="s">
-        <v>423</v>
-      </c>
-      <c r="J21" t="s">
-        <v>459</v>
-      </c>
-      <c r="K21" t="s">
-        <v>495</v>
-      </c>
-      <c r="L21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" t="s">
-        <v>315</v>
-      </c>
-      <c r="G22" t="s">
-        <v>350</v>
-      </c>
-      <c r="H22" t="s">
-        <v>388</v>
-      </c>
-      <c r="I22" t="s">
-        <v>424</v>
-      </c>
-      <c r="J22" t="s">
-        <v>460</v>
-      </c>
-      <c r="K22" t="s">
-        <v>496</v>
-      </c>
-      <c r="L22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G23" t="s">
-        <v>351</v>
-      </c>
-      <c r="H23" t="s">
-        <v>389</v>
-      </c>
-      <c r="I23" t="s">
-        <v>425</v>
-      </c>
-      <c r="J23" t="s">
-        <v>461</v>
-      </c>
-      <c r="K23" t="s">
-        <v>497</v>
-      </c>
-      <c r="L23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" t="s">
-        <v>317</v>
-      </c>
-      <c r="G24" t="s">
-        <v>352</v>
-      </c>
-      <c r="H24" t="s">
-        <v>390</v>
-      </c>
-      <c r="I24" t="s">
-        <v>426</v>
-      </c>
-      <c r="J24" t="s">
-        <v>462</v>
-      </c>
-      <c r="K24" t="s">
-        <v>498</v>
-      </c>
-      <c r="L24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" t="s">
-        <v>291</v>
-      </c>
-      <c r="F25" t="s">
-        <v>318</v>
-      </c>
-      <c r="G25" t="s">
-        <v>353</v>
-      </c>
-      <c r="H25" t="s">
-        <v>391</v>
-      </c>
-      <c r="I25" t="s">
-        <v>427</v>
-      </c>
-      <c r="J25" t="s">
-        <v>463</v>
-      </c>
-      <c r="K25" t="s">
-        <v>499</v>
-      </c>
-      <c r="L25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" t="s">
-        <v>265</v>
-      </c>
-      <c r="E26" t="s">
-        <v>296</v>
-      </c>
-      <c r="F26" t="s">
-        <v>319</v>
-      </c>
-      <c r="G26" t="s">
-        <v>354</v>
-      </c>
-      <c r="H26" t="s">
-        <v>392</v>
-      </c>
-      <c r="I26" t="s">
-        <v>428</v>
-      </c>
-      <c r="J26" t="s">
-        <v>464</v>
-      </c>
-      <c r="K26" t="s">
-        <v>500</v>
-      </c>
-      <c r="L26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" t="s">
-        <v>277</v>
-      </c>
-      <c r="E27" t="s">
-        <v>287</v>
-      </c>
-      <c r="F27" t="s">
-        <v>320</v>
-      </c>
-      <c r="G27" t="s">
-        <v>355</v>
-      </c>
-      <c r="H27" t="s">
-        <v>393</v>
-      </c>
-      <c r="I27" t="s">
-        <v>429</v>
-      </c>
-      <c r="J27" t="s">
-        <v>465</v>
-      </c>
-      <c r="K27" t="s">
-        <v>501</v>
-      </c>
-      <c r="L27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" t="s">
-        <v>321</v>
-      </c>
-      <c r="G28" t="s">
-        <v>356</v>
-      </c>
-      <c r="H28" t="s">
-        <v>394</v>
-      </c>
-      <c r="I28" t="s">
-        <v>430</v>
-      </c>
-      <c r="J28" t="s">
-        <v>466</v>
-      </c>
-      <c r="K28" t="s">
-        <v>502</v>
-      </c>
-      <c r="L28" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" t="s">
-        <v>294</v>
-      </c>
-      <c r="F29" t="s">
-        <v>299</v>
-      </c>
-      <c r="G29" t="s">
-        <v>357</v>
-      </c>
-      <c r="H29" t="s">
-        <v>395</v>
-      </c>
-      <c r="I29" t="s">
-        <v>431</v>
-      </c>
-      <c r="J29" t="s">
-        <v>467</v>
-      </c>
-      <c r="K29" t="s">
-        <v>503</v>
-      </c>
-      <c r="L29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" t="s">
-        <v>289</v>
-      </c>
-      <c r="F30" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" t="s">
-        <v>358</v>
-      </c>
-      <c r="H30" t="s">
-        <v>396</v>
-      </c>
-      <c r="I30" t="s">
-        <v>432</v>
-      </c>
-      <c r="J30" t="s">
-        <v>468</v>
-      </c>
-      <c r="K30" t="s">
-        <v>504</v>
-      </c>
-      <c r="L30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31" t="s">
-        <v>289</v>
-      </c>
-      <c r="F31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G31" t="s">
-        <v>359</v>
-      </c>
-      <c r="H31" t="s">
-        <v>397</v>
-      </c>
-      <c r="I31" t="s">
-        <v>433</v>
-      </c>
-      <c r="J31" t="s">
-        <v>469</v>
-      </c>
-      <c r="K31" t="s">
-        <v>505</v>
-      </c>
-      <c r="L31" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" t="s">
-        <v>291</v>
-      </c>
-      <c r="F32" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" t="s">
-        <v>360</v>
-      </c>
-      <c r="H32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I32" t="s">
-        <v>434</v>
-      </c>
-      <c r="J32" t="s">
-        <v>470</v>
-      </c>
-      <c r="K32" t="s">
-        <v>506</v>
-      </c>
-      <c r="L32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" t="s">
-        <v>291</v>
-      </c>
-      <c r="F33" t="s">
-        <v>324</v>
-      </c>
-      <c r="G33" t="s">
-        <v>361</v>
-      </c>
-      <c r="H33" t="s">
-        <v>399</v>
-      </c>
-      <c r="I33" t="s">
-        <v>435</v>
-      </c>
-      <c r="J33" t="s">
-        <v>471</v>
-      </c>
-      <c r="K33" t="s">
-        <v>507</v>
-      </c>
-      <c r="L33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" t="s">
-        <v>297</v>
-      </c>
-      <c r="F34" t="s">
-        <v>325</v>
-      </c>
-      <c r="G34" t="s">
-        <v>362</v>
-      </c>
-      <c r="H34" t="s">
-        <v>400</v>
-      </c>
-      <c r="I34" t="s">
-        <v>436</v>
-      </c>
-      <c r="J34" t="s">
-        <v>472</v>
-      </c>
-      <c r="K34" t="s">
-        <v>508</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" t="s">
-        <v>282</v>
-      </c>
-      <c r="E35" t="s">
-        <v>289</v>
-      </c>
-      <c r="F35" t="s">
-        <v>326</v>
-      </c>
-      <c r="G35" t="s">
-        <v>363</v>
-      </c>
-      <c r="H35" t="s">
-        <v>401</v>
-      </c>
-      <c r="I35" t="s">
-        <v>437</v>
-      </c>
-      <c r="J35" t="s">
-        <v>473</v>
-      </c>
-      <c r="K35" t="s">
-        <v>509</v>
-      </c>
-      <c r="L35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" t="s">
-        <v>327</v>
-      </c>
-      <c r="G36" t="s">
-        <v>364</v>
-      </c>
-      <c r="H36" t="s">
-        <v>402</v>
-      </c>
-      <c r="I36" t="s">
-        <v>438</v>
-      </c>
-      <c r="J36" t="s">
-        <v>474</v>
-      </c>
-      <c r="K36" t="s">
-        <v>510</v>
-      </c>
-      <c r="L36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" t="s">
-        <v>284</v>
-      </c>
-      <c r="E37" t="s">
-        <v>291</v>
-      </c>
-      <c r="F37" t="s">
-        <v>303</v>
-      </c>
-      <c r="G37" t="s">
-        <v>365</v>
-      </c>
-      <c r="H37" t="s">
-        <v>403</v>
-      </c>
-      <c r="I37" t="s">
-        <v>439</v>
-      </c>
-      <c r="J37" t="s">
-        <v>475</v>
-      </c>
-      <c r="K37" t="s">
-        <v>511</v>
-      </c>
-      <c r="L37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" t="s">
-        <v>265</v>
-      </c>
-      <c r="E38" t="s">
-        <v>298</v>
-      </c>
-      <c r="F38" t="s">
-        <v>328</v>
-      </c>
-      <c r="G38" t="s">
-        <v>366</v>
-      </c>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" t="s">
-        <v>289</v>
-      </c>
-      <c r="F39" t="s">
-        <v>329</v>
-      </c>
-      <c r="G39" t="s">
-        <v>367</v>
-      </c>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="F4" t="n">
+        <v>0.692</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4925,2657 +3598,1465 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>516</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>517</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>518</v>
+        <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>519</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>520</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H1" t="s">
-        <v>521</v>
+        <v>197</v>
+      </c>
+      <c r="I1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>560</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>597</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.17</v>
+        <v>304</v>
+      </c>
+      <c r="F2" t="s">
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>617</v>
-      </c>
-      <c r="H2"/>
+        <v>348</v>
+      </c>
+      <c r="H2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K2" t="s">
+        <v>494</v>
+      </c>
+      <c r="L2" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18.2</v>
+        <v>305</v>
+      </c>
+      <c r="F3" t="s">
+        <v>318</v>
       </c>
       <c r="G3" t="s">
-        <v>618</v>
-      </c>
-      <c r="H3"/>
+        <v>349</v>
+      </c>
+      <c r="H3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J3" t="s">
+        <v>459</v>
+      </c>
+      <c r="K3" t="s">
+        <v>495</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
-        <v>609</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25.18</v>
+        <v>304</v>
+      </c>
+      <c r="F4" t="s">
+        <v>319</v>
       </c>
       <c r="G4" t="s">
-        <v>619</v>
-      </c>
-      <c r="H4"/>
+        <v>350</v>
+      </c>
+      <c r="H4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J4" t="s">
+        <v>460</v>
+      </c>
+      <c r="K4" t="s">
+        <v>496</v>
+      </c>
+      <c r="L4" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>523</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>561</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>597</v>
+        <v>283</v>
       </c>
       <c r="E5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.15</v>
+        <v>305</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>620</v>
-      </c>
-      <c r="H5"/>
+        <v>351</v>
+      </c>
+      <c r="H5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" t="s">
+        <v>425</v>
+      </c>
+      <c r="J5" t="s">
+        <v>461</v>
+      </c>
+      <c r="K5" t="s">
+        <v>497</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
       <c r="D6" t="s">
-        <v>598</v>
+        <v>284</v>
       </c>
       <c r="E6" t="s">
-        <v>608</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15.11</v>
+        <v>306</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>369</v>
-      </c>
-      <c r="H6"/>
+        <v>352</v>
+      </c>
+      <c r="H6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" t="s">
+        <v>426</v>
+      </c>
+      <c r="J6" t="s">
+        <v>462</v>
+      </c>
+      <c r="K6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>562</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>597</v>
+        <v>285</v>
       </c>
       <c r="E7" t="s">
-        <v>607</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7.2</v>
+        <v>307</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
       </c>
       <c r="G7" t="s">
-        <v>621</v>
+        <v>353</v>
       </c>
       <c r="H7" t="s">
-        <v>741</v>
+        <v>391</v>
+      </c>
+      <c r="I7" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
       <c r="D8" t="s">
-        <v>598</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>608</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.22</v>
+        <v>308</v>
+      </c>
+      <c r="F8" t="s">
+        <v>323</v>
       </c>
       <c r="G8" t="s">
-        <v>622</v>
-      </c>
-      <c r="H8"/>
+        <v>354</v>
+      </c>
+      <c r="H8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I8" t="s">
+        <v>428</v>
+      </c>
+      <c r="J8" t="s">
+        <v>464</v>
+      </c>
+      <c r="K8" t="s">
+        <v>500</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
       <c r="D9" t="s">
-        <v>599</v>
+        <v>286</v>
       </c>
       <c r="E9" t="s">
-        <v>609</v>
-      </c>
-      <c r="F9" t="n">
-        <v>25.23</v>
+        <v>305</v>
+      </c>
+      <c r="F9" t="s">
+        <v>324</v>
       </c>
       <c r="G9" t="s">
-        <v>623</v>
-      </c>
-      <c r="H9"/>
+        <v>355</v>
+      </c>
+      <c r="H9" t="s">
+        <v>393</v>
+      </c>
+      <c r="I9" t="s">
+        <v>429</v>
+      </c>
+      <c r="J9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K9" t="s">
+        <v>501</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
       <c r="D10" t="s">
-        <v>600</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>610</v>
-      </c>
-      <c r="F10" t="n">
-        <v>29.23</v>
+        <v>309</v>
+      </c>
+      <c r="F10" t="s">
+        <v>325</v>
       </c>
       <c r="G10" t="s">
-        <v>624</v>
-      </c>
-      <c r="H10"/>
+        <v>356</v>
+      </c>
+      <c r="H10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I10" t="s">
+        <v>430</v>
+      </c>
+      <c r="J10" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" t="s">
+        <v>502</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>563</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
+        <v>288</v>
       </c>
       <c r="E11" t="s">
-        <v>607</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6.24</v>
+        <v>307</v>
+      </c>
+      <c r="F11" t="s">
+        <v>326</v>
       </c>
       <c r="G11" t="s">
-        <v>625</v>
-      </c>
-      <c r="H11"/>
+        <v>357</v>
+      </c>
+      <c r="H11" t="s">
+        <v>395</v>
+      </c>
+      <c r="I11" t="s">
+        <v>431</v>
+      </c>
+      <c r="J11" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" t="s">
+        <v>503</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
       <c r="D12" t="s">
-        <v>598</v>
+        <v>289</v>
       </c>
       <c r="E12" t="s">
-        <v>608</v>
-      </c>
-      <c r="F12" t="n">
-        <v>41.16</v>
+        <v>309</v>
+      </c>
+      <c r="F12" t="s">
+        <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>626</v>
-      </c>
-      <c r="H12"/>
+        <v>358</v>
+      </c>
+      <c r="H12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" t="s">
+        <v>432</v>
+      </c>
+      <c r="J12" t="s">
+        <v>468</v>
+      </c>
+      <c r="K12" t="s">
+        <v>504</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
       <c r="D13" t="s">
-        <v>601</v>
+        <v>290</v>
       </c>
       <c r="E13" t="s">
-        <v>611</v>
-      </c>
-      <c r="F13" t="n">
-        <v>43.19</v>
+        <v>310</v>
+      </c>
+      <c r="F13" t="s">
+        <v>317</v>
       </c>
       <c r="G13" t="s">
-        <v>627</v>
-      </c>
-      <c r="H13"/>
+        <v>359</v>
+      </c>
+      <c r="H13" t="s">
+        <v>397</v>
+      </c>
+      <c r="I13" t="s">
+        <v>433</v>
+      </c>
+      <c r="J13" t="s">
+        <v>469</v>
+      </c>
+      <c r="K13" t="s">
+        <v>505</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>526</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>564</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>597</v>
+        <v>291</v>
       </c>
       <c r="E14" t="s">
-        <v>607</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.21</v>
+        <v>309</v>
+      </c>
+      <c r="F14" t="s">
+        <v>327</v>
       </c>
       <c r="G14" t="s">
-        <v>628</v>
-      </c>
-      <c r="H14"/>
+        <v>360</v>
+      </c>
+      <c r="H14" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" t="s">
+        <v>434</v>
+      </c>
+      <c r="J14" t="s">
+        <v>470</v>
+      </c>
+      <c r="K14" t="s">
+        <v>506</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" t="s">
+        <v>255</v>
+      </c>
       <c r="D15" t="s">
-        <v>598</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>608</v>
-      </c>
-      <c r="F15" t="n">
-        <v>21.22</v>
+        <v>311</v>
+      </c>
+      <c r="F15" t="s">
+        <v>328</v>
       </c>
       <c r="G15" t="s">
-        <v>629</v>
-      </c>
-      <c r="H15"/>
+        <v>361</v>
+      </c>
+      <c r="H15" t="s">
+        <v>399</v>
+      </c>
+      <c r="I15" t="s">
+        <v>435</v>
+      </c>
+      <c r="J15" t="s">
+        <v>471</v>
+      </c>
+      <c r="K15" t="s">
+        <v>507</v>
+      </c>
+      <c r="L15" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>565</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>597</v>
+        <v>292</v>
       </c>
       <c r="E16" t="s">
-        <v>607</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9.05</v>
+        <v>312</v>
+      </c>
+      <c r="F16" t="s">
+        <v>317</v>
       </c>
       <c r="G16" t="s">
-        <v>630</v>
-      </c>
-      <c r="H16"/>
+        <v>362</v>
+      </c>
+      <c r="H16" t="s">
+        <v>400</v>
+      </c>
+      <c r="I16" t="s">
+        <v>436</v>
+      </c>
+      <c r="J16" t="s">
+        <v>472</v>
+      </c>
+      <c r="K16" t="s">
+        <v>508</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
       <c r="D17" t="s">
-        <v>598</v>
+        <v>283</v>
       </c>
       <c r="E17" t="s">
-        <v>608</v>
-      </c>
-      <c r="F17" t="n">
-        <v>40.02</v>
+        <v>312</v>
+      </c>
+      <c r="F17" t="s">
+        <v>329</v>
       </c>
       <c r="G17" t="s">
-        <v>373</v>
-      </c>
-      <c r="H17"/>
+        <v>363</v>
+      </c>
+      <c r="H17" t="s">
+        <v>401</v>
+      </c>
+      <c r="I17" t="s">
+        <v>437</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+      <c r="K17" t="s">
+        <v>509</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>566</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
-        <v>597</v>
+        <v>283</v>
       </c>
       <c r="E18" t="s">
-        <v>607</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8.09</v>
+        <v>311</v>
+      </c>
+      <c r="F18" t="s">
+        <v>330</v>
       </c>
       <c r="G18" t="s">
-        <v>631</v>
-      </c>
-      <c r="H18"/>
+        <v>364</v>
+      </c>
+      <c r="H18" t="s">
+        <v>402</v>
+      </c>
+      <c r="I18" t="s">
+        <v>438</v>
+      </c>
+      <c r="J18" t="s">
+        <v>474</v>
+      </c>
+      <c r="K18" t="s">
+        <v>510</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>259</v>
+      </c>
       <c r="D19" t="s">
-        <v>598</v>
+        <v>293</v>
       </c>
       <c r="E19" t="s">
-        <v>608</v>
-      </c>
-      <c r="F19" t="n">
-        <v>29.03</v>
+        <v>305</v>
+      </c>
+      <c r="F19" t="s">
+        <v>331</v>
       </c>
       <c r="G19" t="s">
-        <v>374</v>
-      </c>
-      <c r="H19"/>
+        <v>365</v>
+      </c>
+      <c r="H19" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" t="s">
+        <v>439</v>
+      </c>
+      <c r="J19" t="s">
+        <v>475</v>
+      </c>
+      <c r="K19" t="s">
+        <v>511</v>
+      </c>
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
       <c r="D20" t="s">
-        <v>601</v>
+        <v>283</v>
       </c>
       <c r="E20" t="s">
-        <v>611</v>
-      </c>
-      <c r="F20" t="n">
-        <v>27.22</v>
+        <v>307</v>
+      </c>
+      <c r="F20" t="s">
+        <v>332</v>
       </c>
       <c r="G20" t="s">
-        <v>632</v>
-      </c>
-      <c r="H20"/>
+        <v>366</v>
+      </c>
+      <c r="H20" t="s">
+        <v>404</v>
+      </c>
+      <c r="I20" t="s">
+        <v>440</v>
+      </c>
+      <c r="J20" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" t="s">
+        <v>512</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>529</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>567</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
-        <v>597</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s">
-        <v>607</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7.17</v>
+        <v>309</v>
+      </c>
+      <c r="F21" t="s">
+        <v>317</v>
       </c>
       <c r="G21" t="s">
-        <v>633</v>
-      </c>
-      <c r="H21"/>
+        <v>367</v>
+      </c>
+      <c r="H21" t="s">
+        <v>405</v>
+      </c>
+      <c r="I21" t="s">
+        <v>441</v>
+      </c>
+      <c r="J21" t="s">
+        <v>477</v>
+      </c>
+      <c r="K21" t="s">
+        <v>513</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" t="s">
+        <v>262</v>
+      </c>
       <c r="D22" t="s">
-        <v>598</v>
+        <v>283</v>
       </c>
       <c r="E22" t="s">
-        <v>608</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14.03</v>
+        <v>307</v>
+      </c>
+      <c r="F22" t="s">
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>634</v>
-      </c>
-      <c r="H22"/>
+        <v>368</v>
+      </c>
+      <c r="H22" t="s">
+        <v>406</v>
+      </c>
+      <c r="I22" t="s">
+        <v>442</v>
+      </c>
+      <c r="J22" t="s">
+        <v>478</v>
+      </c>
+      <c r="K22" t="s">
+        <v>514</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>263</v>
+      </c>
       <c r="D23" t="s">
-        <v>599</v>
+        <v>283</v>
       </c>
       <c r="E23" t="s">
-        <v>609</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.03</v>
+        <v>306</v>
+      </c>
+      <c r="F23" t="s">
+        <v>334</v>
       </c>
       <c r="G23" t="s">
-        <v>635</v>
-      </c>
-      <c r="H23"/>
+        <v>369</v>
+      </c>
+      <c r="H23" t="s">
+        <v>407</v>
+      </c>
+      <c r="I23" t="s">
+        <v>443</v>
+      </c>
+      <c r="J23" t="s">
+        <v>479</v>
+      </c>
+      <c r="K23" t="s">
+        <v>515</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
       <c r="D24" t="s">
-        <v>600</v>
+        <v>283</v>
       </c>
       <c r="E24" t="s">
-        <v>610</v>
-      </c>
-      <c r="F24" t="n">
-        <v>24.03</v>
+        <v>313</v>
+      </c>
+      <c r="F24" t="s">
+        <v>335</v>
       </c>
       <c r="G24" t="s">
-        <v>636</v>
-      </c>
-      <c r="H24"/>
+        <v>370</v>
+      </c>
+      <c r="H24" t="s">
+        <v>408</v>
+      </c>
+      <c r="I24" t="s">
+        <v>444</v>
+      </c>
+      <c r="J24" t="s">
+        <v>480</v>
+      </c>
+      <c r="K24" t="s">
+        <v>516</v>
+      </c>
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="s">
-        <v>602</v>
+        <v>283</v>
       </c>
       <c r="E25" t="s">
-        <v>612</v>
-      </c>
-      <c r="F25" t="n">
-        <v>30.22</v>
+        <v>309</v>
+      </c>
+      <c r="F25" t="s">
+        <v>336</v>
       </c>
       <c r="G25" t="s">
-        <v>637</v>
-      </c>
-      <c r="H25"/>
+        <v>371</v>
+      </c>
+      <c r="H25" t="s">
+        <v>409</v>
+      </c>
+      <c r="I25" t="s">
+        <v>445</v>
+      </c>
+      <c r="J25" t="s">
+        <v>481</v>
+      </c>
+      <c r="K25" t="s">
+        <v>517</v>
+      </c>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>530</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>568</v>
+        <v>266</v>
       </c>
       <c r="D26" t="s">
-        <v>597</v>
+        <v>283</v>
       </c>
       <c r="E26" t="s">
-        <v>607</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.0</v>
+        <v>314</v>
+      </c>
+      <c r="F26" t="s">
+        <v>337</v>
       </c>
       <c r="G26" t="s">
-        <v>638</v>
-      </c>
-      <c r="H26"/>
+        <v>372</v>
+      </c>
+      <c r="H26" t="s">
+        <v>410</v>
+      </c>
+      <c r="I26" t="s">
+        <v>446</v>
+      </c>
+      <c r="J26" t="s">
+        <v>482</v>
+      </c>
+      <c r="K26" t="s">
+        <v>518</v>
+      </c>
+      <c r="L26" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" t="s">
+        <v>267</v>
+      </c>
       <c r="D27" t="s">
-        <v>598</v>
+        <v>295</v>
       </c>
       <c r="E27" t="s">
-        <v>608</v>
-      </c>
-      <c r="F27" t="n">
-        <v>25.03</v>
+        <v>305</v>
+      </c>
+      <c r="F27" t="s">
+        <v>338</v>
       </c>
       <c r="G27" t="s">
-        <v>639</v>
-      </c>
-      <c r="H27"/>
+        <v>373</v>
+      </c>
+      <c r="H27" t="s">
+        <v>411</v>
+      </c>
+      <c r="I27" t="s">
+        <v>447</v>
+      </c>
+      <c r="J27" t="s">
+        <v>483</v>
+      </c>
+      <c r="K27" t="s">
+        <v>519</v>
+      </c>
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
       <c r="D28" t="s">
-        <v>599</v>
+        <v>296</v>
       </c>
       <c r="E28" t="s">
-        <v>609</v>
-      </c>
-      <c r="F28" t="n">
-        <v>26.23</v>
+        <v>314</v>
+      </c>
+      <c r="F28" t="s">
+        <v>339</v>
       </c>
       <c r="G28" t="s">
-        <v>640</v>
-      </c>
-      <c r="H28"/>
+        <v>374</v>
+      </c>
+      <c r="H28" t="s">
+        <v>412</v>
+      </c>
+      <c r="I28" t="s">
+        <v>448</v>
+      </c>
+      <c r="J28" t="s">
+        <v>484</v>
+      </c>
+      <c r="K28" t="s">
+        <v>520</v>
+      </c>
+      <c r="L28" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="A29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
       <c r="D29" t="s">
-        <v>600</v>
+        <v>283</v>
       </c>
       <c r="E29" t="s">
-        <v>610</v>
-      </c>
-      <c r="F29" t="n">
-        <v>35.23</v>
+        <v>312</v>
+      </c>
+      <c r="F29" t="s">
+        <v>317</v>
       </c>
       <c r="G29" t="s">
-        <v>641</v>
-      </c>
-      <c r="H29"/>
+        <v>375</v>
+      </c>
+      <c r="H29" t="s">
+        <v>413</v>
+      </c>
+      <c r="I29" t="s">
+        <v>449</v>
+      </c>
+      <c r="J29" t="s">
+        <v>485</v>
+      </c>
+      <c r="K29" t="s">
+        <v>521</v>
+      </c>
+      <c r="L29" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
       <c r="D30" t="s">
-        <v>602</v>
+        <v>287</v>
       </c>
       <c r="E30" t="s">
-        <v>612</v>
-      </c>
-      <c r="F30" t="n">
-        <v>37.05</v>
+        <v>307</v>
+      </c>
+      <c r="F30" t="s">
+        <v>340</v>
       </c>
       <c r="G30" t="s">
-        <v>642</v>
-      </c>
-      <c r="H30"/>
+        <v>376</v>
+      </c>
+      <c r="H30" t="s">
+        <v>414</v>
+      </c>
+      <c r="I30" t="s">
+        <v>450</v>
+      </c>
+      <c r="J30" t="s">
+        <v>486</v>
+      </c>
+      <c r="K30" t="s">
+        <v>522</v>
+      </c>
+      <c r="L30" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
       <c r="D31" t="s">
-        <v>603</v>
+        <v>297</v>
       </c>
       <c r="E31" t="s">
-        <v>613</v>
-      </c>
-      <c r="F31" t="n">
-        <v>54.22</v>
+        <v>307</v>
+      </c>
+      <c r="F31" t="s">
+        <v>341</v>
       </c>
       <c r="G31" t="s">
-        <v>639</v>
-      </c>
-      <c r="H31"/>
+        <v>377</v>
+      </c>
+      <c r="H31" t="s">
+        <v>415</v>
+      </c>
+      <c r="I31" t="s">
+        <v>451</v>
+      </c>
+      <c r="J31" t="s">
+        <v>487</v>
+      </c>
+      <c r="K31" t="s">
+        <v>523</v>
+      </c>
+      <c r="L31" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
       <c r="D32" t="s">
-        <v>604</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
-        <v>614</v>
-      </c>
-      <c r="F32" t="n">
-        <v>59.16</v>
+        <v>309</v>
+      </c>
+      <c r="F32" t="s">
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>643</v>
-      </c>
-      <c r="H32"/>
+        <v>378</v>
+      </c>
+      <c r="H32" t="s">
+        <v>416</v>
+      </c>
+      <c r="I32" t="s">
+        <v>452</v>
+      </c>
+      <c r="J32" t="s">
+        <v>488</v>
+      </c>
+      <c r="K32" t="s">
+        <v>524</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s">
-        <v>531</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>569</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
-        <v>597</v>
+        <v>297</v>
       </c>
       <c r="E33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7.08</v>
+        <v>309</v>
+      </c>
+      <c r="F33" t="s">
+        <v>342</v>
       </c>
       <c r="G33" t="s">
-        <v>644</v>
-      </c>
-      <c r="H33"/>
+        <v>379</v>
+      </c>
+      <c r="H33" t="s">
+        <v>417</v>
+      </c>
+      <c r="I33" t="s">
+        <v>453</v>
+      </c>
+      <c r="J33" t="s">
+        <v>489</v>
+      </c>
+      <c r="K33" t="s">
+        <v>525</v>
+      </c>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
       <c r="D34" t="s">
-        <v>598</v>
+        <v>299</v>
       </c>
       <c r="E34" t="s">
-        <v>608</v>
-      </c>
-      <c r="F34" t="n">
-        <v>15.2</v>
+        <v>315</v>
+      </c>
+      <c r="F34" t="s">
+        <v>343</v>
       </c>
       <c r="G34" t="s">
-        <v>645</v>
-      </c>
-      <c r="H34"/>
+        <v>380</v>
+      </c>
+      <c r="H34" t="s">
+        <v>418</v>
+      </c>
+      <c r="I34" t="s">
+        <v>454</v>
+      </c>
+      <c r="J34" t="s">
+        <v>490</v>
+      </c>
+      <c r="K34" t="s">
+        <v>526</v>
+      </c>
+      <c r="L34" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" t="s">
+        <v>275</v>
+      </c>
       <c r="D35" t="s">
-        <v>599</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
-        <v>609</v>
-      </c>
-      <c r="F35" t="n">
-        <v>22.21</v>
+        <v>307</v>
+      </c>
+      <c r="F35" t="s">
+        <v>344</v>
       </c>
       <c r="G35" t="s">
-        <v>646</v>
-      </c>
-      <c r="H35"/>
+        <v>381</v>
+      </c>
+      <c r="H35" t="s">
+        <v>419</v>
+      </c>
+      <c r="I35" t="s">
+        <v>455</v>
+      </c>
+      <c r="J35" t="s">
+        <v>491</v>
+      </c>
+      <c r="K35" t="s">
+        <v>527</v>
+      </c>
+      <c r="L35" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>276</v>
+      </c>
       <c r="D36" t="s">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="E36" t="s">
-        <v>610</v>
-      </c>
-      <c r="F36" t="n">
-        <v>25.12</v>
+        <v>309</v>
+      </c>
+      <c r="F36" t="s">
+        <v>345</v>
       </c>
       <c r="G36" t="s">
-        <v>647</v>
-      </c>
-      <c r="H36"/>
+        <v>382</v>
+      </c>
+      <c r="H36" t="s">
+        <v>420</v>
+      </c>
+      <c r="I36" t="s">
+        <v>456</v>
+      </c>
+      <c r="J36" t="s">
+        <v>492</v>
+      </c>
+      <c r="K36" t="s">
+        <v>528</v>
+      </c>
+      <c r="L36" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" t="s">
+        <v>277</v>
+      </c>
       <c r="D37" t="s">
-        <v>602</v>
+        <v>302</v>
       </c>
       <c r="E37" t="s">
-        <v>612</v>
-      </c>
-      <c r="F37" t="n">
-        <v>31.22</v>
+        <v>309</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
       </c>
       <c r="G37" t="s">
-        <v>648</v>
-      </c>
-      <c r="H37"/>
+        <v>383</v>
+      </c>
+      <c r="H37" t="s">
+        <v>421</v>
+      </c>
+      <c r="I37" t="s">
+        <v>457</v>
+      </c>
+      <c r="J37" t="s">
+        <v>493</v>
+      </c>
+      <c r="K37" t="s">
+        <v>529</v>
+      </c>
+      <c r="L37" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>278</v>
+      </c>
       <c r="D38" t="s">
-        <v>603</v>
+        <v>283</v>
       </c>
       <c r="E38" t="s">
-        <v>613</v>
-      </c>
-      <c r="F38" t="n">
-        <v>35.23</v>
+        <v>316</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
       </c>
       <c r="G38" t="s">
-        <v>649</v>
+        <v>384</v>
       </c>
       <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>532</v>
+        <v>241</v>
       </c>
       <c r="C39" t="s">
-        <v>570</v>
+        <v>279</v>
       </c>
       <c r="D39" t="s">
-        <v>597</v>
+        <v>303</v>
       </c>
       <c r="E39" t="s">
-        <v>607</v>
-      </c>
-      <c r="F39" t="n">
-        <v>7.22</v>
+        <v>307</v>
+      </c>
+      <c r="F39" t="s">
+        <v>347</v>
       </c>
       <c r="G39" t="s">
-        <v>650</v>
+        <v>385</v>
       </c>
       <c r="H39"/>
-    </row>
-    <row r="40">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40" t="s">
-        <v>598</v>
-      </c>
-      <c r="E40" t="s">
-        <v>608</v>
-      </c>
-      <c r="F40" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>651</v>
-      </c>
-      <c r="H40"/>
-    </row>
-    <row r="41">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41" t="s">
-        <v>599</v>
-      </c>
-      <c r="E41" t="s">
-        <v>609</v>
-      </c>
-      <c r="F41" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>652</v>
-      </c>
-      <c r="H41"/>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42" t="s">
-        <v>600</v>
-      </c>
-      <c r="E42" t="s">
-        <v>610</v>
-      </c>
-      <c r="F42" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="G42" t="s">
-        <v>653</v>
-      </c>
-      <c r="H42"/>
-    </row>
-    <row r="43">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43" t="s">
-        <v>602</v>
-      </c>
-      <c r="E43" t="s">
-        <v>612</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>654</v>
-      </c>
-      <c r="H43"/>
-    </row>
-    <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44" t="s">
-        <v>603</v>
-      </c>
-      <c r="E44" t="s">
-        <v>613</v>
-      </c>
-      <c r="F44" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="G44" t="s">
-        <v>653</v>
-      </c>
-      <c r="H44"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>196</v>
-      </c>
-      <c r="B45" t="s">
-        <v>533</v>
-      </c>
-      <c r="C45" t="s">
-        <v>571</v>
-      </c>
-      <c r="D45" t="s">
-        <v>597</v>
-      </c>
-      <c r="E45" t="s">
-        <v>607</v>
-      </c>
-      <c r="F45" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>655</v>
-      </c>
-      <c r="H45"/>
-    </row>
-    <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46" t="s">
-        <v>598</v>
-      </c>
-      <c r="E46" t="s">
-        <v>608</v>
-      </c>
-      <c r="F46" t="n">
-        <v>36.07</v>
-      </c>
-      <c r="G46" t="s">
-        <v>656</v>
-      </c>
-      <c r="H46"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" t="s">
-        <v>534</v>
-      </c>
-      <c r="C47" t="s">
-        <v>572</v>
-      </c>
-      <c r="D47" t="s">
-        <v>597</v>
-      </c>
-      <c r="E47" t="s">
-        <v>607</v>
-      </c>
-      <c r="F47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>657</v>
-      </c>
-      <c r="H47"/>
-    </row>
-    <row r="48">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48" t="s">
-        <v>598</v>
-      </c>
-      <c r="E48" t="s">
-        <v>608</v>
-      </c>
-      <c r="F48" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>658</v>
-      </c>
-      <c r="H48"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" t="s">
-        <v>535</v>
-      </c>
-      <c r="C49" t="s">
-        <v>573</v>
-      </c>
-      <c r="D49" t="s">
-        <v>597</v>
-      </c>
-      <c r="E49" t="s">
-        <v>607</v>
-      </c>
-      <c r="F49" t="n">
-        <v>9.11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>659</v>
-      </c>
-      <c r="H49"/>
-    </row>
-    <row r="50">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50" t="s">
-        <v>598</v>
-      </c>
-      <c r="E50" t="s">
-        <v>608</v>
-      </c>
-      <c r="F50" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="G50" t="s">
-        <v>660</v>
-      </c>
-      <c r="H50"/>
-    </row>
-    <row r="51">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51" t="s">
-        <v>599</v>
-      </c>
-      <c r="E51" t="s">
-        <v>609</v>
-      </c>
-      <c r="F51" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="G51" t="s">
-        <v>661</v>
-      </c>
-      <c r="H51"/>
-    </row>
-    <row r="52">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52" t="s">
-        <v>600</v>
-      </c>
-      <c r="E52" t="s">
-        <v>610</v>
-      </c>
-      <c r="F52" t="n">
-        <v>31.01</v>
-      </c>
-      <c r="G52" t="s">
-        <v>662</v>
-      </c>
-      <c r="H52"/>
-    </row>
-    <row r="53">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53" t="s">
-        <v>602</v>
-      </c>
-      <c r="E53" t="s">
-        <v>612</v>
-      </c>
-      <c r="F53" t="n">
-        <v>33.23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>663</v>
-      </c>
-      <c r="H53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" t="s">
-        <v>536</v>
-      </c>
-      <c r="C54" t="s">
-        <v>574</v>
-      </c>
-      <c r="D54" t="s">
-        <v>597</v>
-      </c>
-      <c r="E54" t="s">
-        <v>607</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>664</v>
-      </c>
-      <c r="H54" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55" t="s">
-        <v>598</v>
-      </c>
-      <c r="E55" t="s">
-        <v>608</v>
-      </c>
-      <c r="F55" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="G55" t="s">
-        <v>665</v>
-      </c>
-      <c r="H55"/>
-    </row>
-    <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56" t="s">
-        <v>601</v>
-      </c>
-      <c r="E56" t="s">
-        <v>611</v>
-      </c>
-      <c r="F56" t="n">
-        <v>18.23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>666</v>
-      </c>
-      <c r="H56"/>
-    </row>
-    <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57" t="s">
-        <v>599</v>
-      </c>
-      <c r="E57" t="s">
-        <v>609</v>
-      </c>
-      <c r="F57" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>667</v>
-      </c>
-      <c r="H57"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" t="s">
-        <v>537</v>
-      </c>
-      <c r="C58" t="s">
-        <v>575</v>
-      </c>
-      <c r="D58" t="s">
-        <v>597</v>
-      </c>
-      <c r="E58" t="s">
-        <v>607</v>
-      </c>
-      <c r="F58" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>668</v>
-      </c>
-      <c r="H58"/>
-    </row>
-    <row r="59">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59" t="s">
-        <v>598</v>
-      </c>
-      <c r="E59" t="s">
-        <v>608</v>
-      </c>
-      <c r="F59" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="G59" t="s">
-        <v>669</v>
-      </c>
-      <c r="H59"/>
-    </row>
-    <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60" t="s">
-        <v>599</v>
-      </c>
-      <c r="E60" t="s">
-        <v>609</v>
-      </c>
-      <c r="F60" t="n">
-        <v>42.08</v>
-      </c>
-      <c r="G60" t="s">
-        <v>670</v>
-      </c>
-      <c r="H60"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" t="s">
-        <v>538</v>
-      </c>
-      <c r="C61" t="s">
-        <v>576</v>
-      </c>
-      <c r="D61" t="s">
-        <v>597</v>
-      </c>
-      <c r="E61" t="s">
-        <v>607</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>671</v>
-      </c>
-      <c r="H61"/>
-    </row>
-    <row r="62">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62" t="s">
-        <v>598</v>
-      </c>
-      <c r="E62" t="s">
-        <v>608</v>
-      </c>
-      <c r="F62" t="n">
-        <v>36.15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>672</v>
-      </c>
-      <c r="H62"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63" t="s">
-        <v>539</v>
-      </c>
-      <c r="C63" t="s">
-        <v>577</v>
-      </c>
-      <c r="D63" t="s">
-        <v>597</v>
-      </c>
-      <c r="E63" t="s">
-        <v>607</v>
-      </c>
-      <c r="F63" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>673</v>
-      </c>
-      <c r="H63"/>
-    </row>
-    <row r="64">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64" t="s">
-        <v>598</v>
-      </c>
-      <c r="E64" t="s">
-        <v>608</v>
-      </c>
-      <c r="F64" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="G64" t="s">
-        <v>674</v>
-      </c>
-      <c r="H64"/>
-    </row>
-    <row r="65">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65" t="s">
-        <v>601</v>
-      </c>
-      <c r="E65" t="s">
-        <v>611</v>
-      </c>
-      <c r="F65" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>675</v>
-      </c>
-      <c r="H65"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66" t="s">
-        <v>540</v>
-      </c>
-      <c r="C66" t="s">
-        <v>578</v>
-      </c>
-      <c r="D66" t="s">
-        <v>597</v>
-      </c>
-      <c r="E66" t="s">
-        <v>607</v>
-      </c>
-      <c r="F66" t="n">
-        <v>8.14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>676</v>
-      </c>
-      <c r="H66"/>
-    </row>
-    <row r="67">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67" t="s">
-        <v>598</v>
-      </c>
-      <c r="E67" t="s">
-        <v>608</v>
-      </c>
-      <c r="F67" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="G67" t="s">
-        <v>677</v>
-      </c>
-      <c r="H67"/>
-    </row>
-    <row r="68">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68" t="s">
-        <v>599</v>
-      </c>
-      <c r="E68" t="s">
-        <v>609</v>
-      </c>
-      <c r="F68" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>678</v>
-      </c>
-      <c r="H68"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" t="s">
-        <v>541</v>
-      </c>
-      <c r="C69" t="s">
-        <v>579</v>
-      </c>
-      <c r="D69" t="s">
-        <v>597</v>
-      </c>
-      <c r="E69" t="s">
-        <v>607</v>
-      </c>
-      <c r="F69" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>679</v>
-      </c>
-      <c r="H69"/>
-    </row>
-    <row r="70">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70" t="s">
-        <v>598</v>
-      </c>
-      <c r="E70" t="s">
-        <v>608</v>
-      </c>
-      <c r="F70" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>385</v>
-      </c>
-      <c r="H70"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>204</v>
-      </c>
-      <c r="B71" t="s">
-        <v>542</v>
-      </c>
-      <c r="C71" t="s">
-        <v>580</v>
-      </c>
-      <c r="D71" t="s">
-        <v>597</v>
-      </c>
-      <c r="E71" t="s">
-        <v>607</v>
-      </c>
-      <c r="F71" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="G71" t="s">
-        <v>680</v>
-      </c>
-      <c r="H71"/>
-    </row>
-    <row r="72">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72" t="s">
-        <v>598</v>
-      </c>
-      <c r="E72" t="s">
-        <v>608</v>
-      </c>
-      <c r="F72" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="G72" t="s">
-        <v>681</v>
-      </c>
-      <c r="H72"/>
-    </row>
-    <row r="73">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73" t="s">
-        <v>599</v>
-      </c>
-      <c r="E73" t="s">
-        <v>609</v>
-      </c>
-      <c r="F73" t="n">
-        <v>26.06</v>
-      </c>
-      <c r="G73" t="s">
-        <v>682</v>
-      </c>
-      <c r="H73"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>205</v>
-      </c>
-      <c r="B74" t="s">
-        <v>543</v>
-      </c>
-      <c r="C74" t="s">
-        <v>581</v>
-      </c>
-      <c r="D74" t="s">
-        <v>597</v>
-      </c>
-      <c r="E74" t="s">
-        <v>607</v>
-      </c>
-      <c r="F74" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>683</v>
-      </c>
-      <c r="H74"/>
-    </row>
-    <row r="75">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75" t="s">
-        <v>598</v>
-      </c>
-      <c r="E75" t="s">
-        <v>608</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>684</v>
-      </c>
-      <c r="H75"/>
-    </row>
-    <row r="76">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76" t="s">
-        <v>599</v>
-      </c>
-      <c r="E76" t="s">
-        <v>609</v>
-      </c>
-      <c r="F76" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="G76" t="s">
-        <v>685</v>
-      </c>
-      <c r="H76"/>
-    </row>
-    <row r="77">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77" t="s">
-        <v>600</v>
-      </c>
-      <c r="E77" t="s">
-        <v>610</v>
-      </c>
-      <c r="F77" t="n">
-        <v>44.19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>686</v>
-      </c>
-      <c r="H77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78" t="s">
-        <v>544</v>
-      </c>
-      <c r="C78" t="s">
-        <v>582</v>
-      </c>
-      <c r="D78" t="s">
-        <v>597</v>
-      </c>
-      <c r="E78" t="s">
-        <v>607</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G78" t="s">
-        <v>687</v>
-      </c>
-      <c r="H78"/>
-    </row>
-    <row r="79">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79" t="s">
-        <v>598</v>
-      </c>
-      <c r="E79" t="s">
-        <v>608</v>
-      </c>
-      <c r="F79" t="n">
-        <v>34.08</v>
-      </c>
-      <c r="G79" t="s">
-        <v>388</v>
-      </c>
-      <c r="H79"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>207</v>
-      </c>
-      <c r="B80" t="s">
-        <v>545</v>
-      </c>
-      <c r="C80" t="s">
-        <v>583</v>
-      </c>
-      <c r="D80" t="s">
-        <v>597</v>
-      </c>
-      <c r="E80" t="s">
-        <v>607</v>
-      </c>
-      <c r="F80" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>688</v>
-      </c>
-      <c r="H80"/>
-    </row>
-    <row r="81">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81" t="s">
-        <v>598</v>
-      </c>
-      <c r="E81" t="s">
-        <v>608</v>
-      </c>
-      <c r="F81" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>689</v>
-      </c>
-      <c r="H81"/>
-    </row>
-    <row r="82">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82" t="s">
-        <v>599</v>
-      </c>
-      <c r="E82" t="s">
-        <v>609</v>
-      </c>
-      <c r="F82" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="G82" t="s">
-        <v>690</v>
-      </c>
-      <c r="H82"/>
-    </row>
-    <row r="83">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83" t="s">
-        <v>600</v>
-      </c>
-      <c r="E83" t="s">
-        <v>610</v>
-      </c>
-      <c r="F83" t="n">
-        <v>32.06</v>
-      </c>
-      <c r="G83" t="s">
-        <v>691</v>
-      </c>
-      <c r="H83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>208</v>
-      </c>
-      <c r="B84" t="s">
-        <v>546</v>
-      </c>
-      <c r="C84" t="s">
-        <v>584</v>
-      </c>
-      <c r="D84" t="s">
-        <v>597</v>
-      </c>
-      <c r="E84" t="s">
-        <v>607</v>
-      </c>
-      <c r="F84" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>692</v>
-      </c>
-      <c r="H84"/>
-    </row>
-    <row r="85">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85" t="s">
-        <v>598</v>
-      </c>
-      <c r="E85" t="s">
-        <v>608</v>
-      </c>
-      <c r="F85" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>693</v>
-      </c>
-      <c r="H85"/>
-    </row>
-    <row r="86">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86" t="s">
-        <v>601</v>
-      </c>
-      <c r="E86" t="s">
-        <v>611</v>
-      </c>
-      <c r="F86" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="G86" t="s">
-        <v>694</v>
-      </c>
-      <c r="H86"/>
-    </row>
-    <row r="87">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87" t="s">
-        <v>599</v>
-      </c>
-      <c r="E87" t="s">
-        <v>609</v>
-      </c>
-      <c r="F87" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="G87" t="s">
-        <v>695</v>
-      </c>
-      <c r="H87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>209</v>
-      </c>
-      <c r="B88" t="s">
-        <v>547</v>
-      </c>
-      <c r="C88" t="s">
-        <v>585</v>
-      </c>
-      <c r="D88" t="s">
-        <v>597</v>
-      </c>
-      <c r="E88" t="s">
-        <v>607</v>
-      </c>
-      <c r="F88" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="G88" t="s">
-        <v>696</v>
-      </c>
-      <c r="H88"/>
-    </row>
-    <row r="89">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89" t="s">
-        <v>598</v>
-      </c>
-      <c r="E89" t="s">
-        <v>608</v>
-      </c>
-      <c r="F89" t="n">
-        <v>35.13</v>
-      </c>
-      <c r="G89" t="s">
-        <v>697</v>
-      </c>
-      <c r="H89"/>
-    </row>
-    <row r="90">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90" t="s">
-        <v>599</v>
-      </c>
-      <c r="E90" t="s">
-        <v>609</v>
-      </c>
-      <c r="F90" t="n">
-        <v>48.23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>698</v>
-      </c>
-      <c r="H90"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>210</v>
-      </c>
-      <c r="B91" t="s">
-        <v>548</v>
-      </c>
-      <c r="C91" t="s">
-        <v>586</v>
-      </c>
-      <c r="D91" t="s">
-        <v>597</v>
-      </c>
-      <c r="E91" t="s">
-        <v>607</v>
-      </c>
-      <c r="F91" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="G91" t="s">
-        <v>699</v>
-      </c>
-      <c r="H91"/>
-    </row>
-    <row r="92">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92" t="s">
-        <v>598</v>
-      </c>
-      <c r="E92" t="s">
-        <v>608</v>
-      </c>
-      <c r="F92" t="n">
-        <v>33.04</v>
-      </c>
-      <c r="G92" t="s">
-        <v>700</v>
-      </c>
-      <c r="H92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>211</v>
-      </c>
-      <c r="B93" t="s">
-        <v>549</v>
-      </c>
-      <c r="C93" t="s">
-        <v>587</v>
-      </c>
-      <c r="D93" t="s">
-        <v>597</v>
-      </c>
-      <c r="E93" t="s">
-        <v>607</v>
-      </c>
-      <c r="F93" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="G93" t="s">
-        <v>701</v>
-      </c>
-      <c r="H93"/>
-    </row>
-    <row r="94">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94" t="s">
-        <v>598</v>
-      </c>
-      <c r="E94" t="s">
-        <v>608</v>
-      </c>
-      <c r="F94" t="n">
-        <v>27.08</v>
-      </c>
-      <c r="G94" t="s">
-        <v>702</v>
-      </c>
-      <c r="H94"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" t="s">
-        <v>550</v>
-      </c>
-      <c r="C95" t="s">
-        <v>588</v>
-      </c>
-      <c r="D95" t="s">
-        <v>597</v>
-      </c>
-      <c r="E95" t="s">
-        <v>607</v>
-      </c>
-      <c r="F95" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="G95" t="s">
-        <v>703</v>
-      </c>
-      <c r="H95"/>
-    </row>
-    <row r="96">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96" t="s">
-        <v>598</v>
-      </c>
-      <c r="E96" t="s">
-        <v>608</v>
-      </c>
-      <c r="F96" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>704</v>
-      </c>
-      <c r="H96"/>
-    </row>
-    <row r="97">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97" t="s">
-        <v>601</v>
-      </c>
-      <c r="E97" t="s">
-        <v>611</v>
-      </c>
-      <c r="F97" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>705</v>
-      </c>
-      <c r="H97"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>213</v>
-      </c>
-      <c r="B98" t="s">
-        <v>551</v>
-      </c>
-      <c r="C98" t="s">
-        <v>589</v>
-      </c>
-      <c r="D98" t="s">
-        <v>597</v>
-      </c>
-      <c r="E98" t="s">
-        <v>607</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>706</v>
-      </c>
-      <c r="H98"/>
-    </row>
-    <row r="99">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99" t="s">
-        <v>598</v>
-      </c>
-      <c r="E99" t="s">
-        <v>608</v>
-      </c>
-      <c r="F99" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="G99" t="s">
-        <v>707</v>
-      </c>
-      <c r="H99"/>
-    </row>
-    <row r="100">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100" t="s">
-        <v>601</v>
-      </c>
-      <c r="E100" t="s">
-        <v>611</v>
-      </c>
-      <c r="F100" t="n">
-        <v>30.11</v>
-      </c>
-      <c r="G100" t="s">
-        <v>708</v>
-      </c>
-      <c r="H100"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>214</v>
-      </c>
-      <c r="B101" t="s">
-        <v>552</v>
-      </c>
-      <c r="C101" t="s">
-        <v>590</v>
-      </c>
-      <c r="D101" t="s">
-        <v>597</v>
-      </c>
-      <c r="E101" t="s">
-        <v>607</v>
-      </c>
-      <c r="F101" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>709</v>
-      </c>
-      <c r="H101"/>
-    </row>
-    <row r="102">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102" t="s">
-        <v>598</v>
-      </c>
-      <c r="E102" t="s">
-        <v>608</v>
-      </c>
-      <c r="F102" t="n">
-        <v>30.01</v>
-      </c>
-      <c r="G102" t="s">
-        <v>710</v>
-      </c>
-      <c r="H102"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" t="s">
-        <v>553</v>
-      </c>
-      <c r="C103" t="s">
-        <v>591</v>
-      </c>
-      <c r="D103" t="s">
-        <v>597</v>
-      </c>
-      <c r="E103" t="s">
-        <v>607</v>
-      </c>
-      <c r="F103" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="G103" t="s">
-        <v>711</v>
-      </c>
-      <c r="H103"/>
-    </row>
-    <row r="104">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104" t="s">
-        <v>598</v>
-      </c>
-      <c r="E104" t="s">
-        <v>608</v>
-      </c>
-      <c r="F104" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="G104" t="s">
-        <v>712</v>
-      </c>
-      <c r="H104"/>
-    </row>
-    <row r="105">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105" t="s">
-        <v>599</v>
-      </c>
-      <c r="E105" t="s">
-        <v>609</v>
-      </c>
-      <c r="F105" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G105" t="s">
-        <v>713</v>
-      </c>
-      <c r="H105"/>
-    </row>
-    <row r="106">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106" t="s">
-        <v>600</v>
-      </c>
-      <c r="E106" t="s">
-        <v>610</v>
-      </c>
-      <c r="F106" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>714</v>
-      </c>
-      <c r="H106"/>
-    </row>
-    <row r="107">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107" t="s">
-        <v>602</v>
-      </c>
-      <c r="E107" t="s">
-        <v>612</v>
-      </c>
-      <c r="F107" t="n">
-        <v>36.03</v>
-      </c>
-      <c r="G107" t="s">
-        <v>715</v>
-      </c>
-      <c r="H107"/>
-    </row>
-    <row r="108">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108" t="s">
-        <v>603</v>
-      </c>
-      <c r="E108" t="s">
-        <v>613</v>
-      </c>
-      <c r="F108" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="G108" t="s">
-        <v>716</v>
-      </c>
-      <c r="H108"/>
-    </row>
-    <row r="109">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109" t="s">
-        <v>604</v>
-      </c>
-      <c r="E109" t="s">
-        <v>614</v>
-      </c>
-      <c r="F109" t="n">
-        <v>45.06</v>
-      </c>
-      <c r="G109" t="s">
-        <v>717</v>
-      </c>
-      <c r="H109"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" t="s">
-        <v>554</v>
-      </c>
-      <c r="C110" t="s">
-        <v>592</v>
-      </c>
-      <c r="D110" t="s">
-        <v>597</v>
-      </c>
-      <c r="E110" t="s">
-        <v>607</v>
-      </c>
-      <c r="F110" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>718</v>
-      </c>
-      <c r="H110"/>
-    </row>
-    <row r="111">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111" t="s">
-        <v>598</v>
-      </c>
-      <c r="E111" t="s">
-        <v>608</v>
-      </c>
-      <c r="F111" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>719</v>
-      </c>
-      <c r="H111"/>
-    </row>
-    <row r="112">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112" t="s">
-        <v>599</v>
-      </c>
-      <c r="E112" t="s">
-        <v>609</v>
-      </c>
-      <c r="F112" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="G112" t="s">
-        <v>720</v>
-      </c>
-      <c r="H112"/>
-    </row>
-    <row r="113">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113" t="s">
-        <v>600</v>
-      </c>
-      <c r="E113" t="s">
-        <v>610</v>
-      </c>
-      <c r="F113" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>721</v>
-      </c>
-      <c r="H113"/>
-    </row>
-    <row r="114">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114" t="s">
-        <v>602</v>
-      </c>
-      <c r="E114" t="s">
-        <v>612</v>
-      </c>
-      <c r="F114" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>722</v>
-      </c>
-      <c r="H114"/>
-    </row>
-    <row r="115">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115" t="s">
-        <v>603</v>
-      </c>
-      <c r="E115" t="s">
-        <v>613</v>
-      </c>
-      <c r="F115" t="n">
-        <v>33.11</v>
-      </c>
-      <c r="G115" t="s">
-        <v>723</v>
-      </c>
-      <c r="H115"/>
-    </row>
-    <row r="116">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116" t="s">
-        <v>604</v>
-      </c>
-      <c r="E116" t="s">
-        <v>614</v>
-      </c>
-      <c r="F116" t="n">
-        <v>42.15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>645</v>
-      </c>
-      <c r="H116"/>
-    </row>
-    <row r="117">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117" t="s">
-        <v>605</v>
-      </c>
-      <c r="E117" t="s">
-        <v>615</v>
-      </c>
-      <c r="F117" t="n">
-        <v>47.12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>724</v>
-      </c>
-      <c r="H117"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>217</v>
-      </c>
-      <c r="B118" t="s">
-        <v>555</v>
-      </c>
-      <c r="C118" t="s">
-        <v>593</v>
-      </c>
-      <c r="D118" t="s">
-        <v>597</v>
-      </c>
-      <c r="E118" t="s">
-        <v>607</v>
-      </c>
-      <c r="F118" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>725</v>
-      </c>
-      <c r="H118"/>
-    </row>
-    <row r="119">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119" t="s">
-        <v>598</v>
-      </c>
-      <c r="E119" t="s">
-        <v>608</v>
-      </c>
-      <c r="F119" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="G119" t="s">
-        <v>726</v>
-      </c>
-      <c r="H119"/>
-    </row>
-    <row r="120">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120" t="s">
-        <v>599</v>
-      </c>
-      <c r="E120" t="s">
-        <v>609</v>
-      </c>
-      <c r="F120" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>727</v>
-      </c>
-      <c r="H120"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>218</v>
-      </c>
-      <c r="B121" t="s">
-        <v>556</v>
-      </c>
-      <c r="C121" t="s">
-        <v>594</v>
-      </c>
-      <c r="D121" t="s">
-        <v>597</v>
-      </c>
-      <c r="E121" t="s">
-        <v>607</v>
-      </c>
-      <c r="F121" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="G121" t="s">
-        <v>728</v>
-      </c>
-      <c r="H121"/>
-    </row>
-    <row r="122">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122" t="s">
-        <v>598</v>
-      </c>
-      <c r="E122" t="s">
-        <v>608</v>
-      </c>
-      <c r="F122" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="G122" t="s">
-        <v>729</v>
-      </c>
-      <c r="H122"/>
-    </row>
-    <row r="123">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123" t="s">
-        <v>599</v>
-      </c>
-      <c r="E123" t="s">
-        <v>609</v>
-      </c>
-      <c r="F123" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G123" t="s">
-        <v>730</v>
-      </c>
-      <c r="H123"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>219</v>
-      </c>
-      <c r="B124" t="s">
-        <v>557</v>
-      </c>
-      <c r="C124" t="s">
-        <v>595</v>
-      </c>
-      <c r="D124" t="s">
-        <v>597</v>
-      </c>
-      <c r="E124" t="s">
-        <v>607</v>
-      </c>
-      <c r="F124" t="n">
-        <v>37.15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>731</v>
-      </c>
-      <c r="H124"/>
-    </row>
-    <row r="125">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125" t="s">
-        <v>598</v>
-      </c>
-      <c r="E125" t="s">
-        <v>608</v>
-      </c>
-      <c r="F125" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>732</v>
-      </c>
-      <c r="H125"/>
-    </row>
-    <row r="126">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126" t="s">
-        <v>601</v>
-      </c>
-      <c r="E126" t="s">
-        <v>611</v>
-      </c>
-      <c r="F126" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>733</v>
-      </c>
-      <c r="H126"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>220</v>
-      </c>
-      <c r="B127" t="s">
-        <v>558</v>
-      </c>
-      <c r="C127" t="s">
-        <v>565</v>
-      </c>
-      <c r="D127" t="s">
-        <v>597</v>
-      </c>
-      <c r="E127" t="s">
-        <v>607</v>
-      </c>
-      <c r="F127" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>734</v>
-      </c>
-      <c r="H127"/>
-    </row>
-    <row r="128">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128" t="s">
-        <v>598</v>
-      </c>
-      <c r="E128" t="s">
-        <v>608</v>
-      </c>
-      <c r="F128" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>735</v>
-      </c>
-      <c r="H128"/>
-    </row>
-    <row r="129">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129" t="s">
-        <v>599</v>
-      </c>
-      <c r="E129" t="s">
-        <v>609</v>
-      </c>
-      <c r="F129" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>736</v>
-      </c>
-      <c r="H129"/>
-    </row>
-    <row r="130">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130" t="s">
-        <v>600</v>
-      </c>
-      <c r="E130" t="s">
-        <v>610</v>
-      </c>
-      <c r="F130" t="n">
-        <v>39.09</v>
-      </c>
-      <c r="G130" t="s">
-        <v>737</v>
-      </c>
-      <c r="H130"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>221</v>
-      </c>
-      <c r="B131" t="s">
-        <v>559</v>
-      </c>
-      <c r="C131" t="s">
-        <v>596</v>
-      </c>
-      <c r="D131" t="s">
-        <v>597</v>
-      </c>
-      <c r="E131" t="s">
-        <v>607</v>
-      </c>
-      <c r="F131" t="n">
-        <v>9.03</v>
-      </c>
-      <c r="G131" t="s">
-        <v>738</v>
-      </c>
-      <c r="H131" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132" t="s">
-        <v>598</v>
-      </c>
-      <c r="E132" t="s">
-        <v>608</v>
-      </c>
-      <c r="F132" t="n">
-        <v>22.04</v>
-      </c>
-      <c r="G132" t="s">
-        <v>739</v>
-      </c>
-      <c r="H132"/>
-    </row>
-    <row r="133">
-      <c r="A133"/>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133" t="s">
-        <v>599</v>
-      </c>
-      <c r="E133" t="s">
-        <v>609</v>
-      </c>
-      <c r="F133" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="G133" t="s">
-        <v>661</v>
-      </c>
-      <c r="H133"/>
-    </row>
-    <row r="134">
-      <c r="A134"/>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134" t="s">
-        <v>606</v>
-      </c>
-      <c r="E134" t="s">
-        <v>616</v>
-      </c>
-      <c r="F134" t="n">
-        <v>25.07</v>
-      </c>
-      <c r="G134" t="s">
-        <v>740</v>
-      </c>
-      <c r="H134"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7592,618 +5073,3285 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>744</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>745</v>
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E4" t="s">
+        <v>627</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>638</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E6" t="s">
+        <v>626</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>639</v>
+      </c>
+      <c r="H7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E8" t="s">
+        <v>626</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>640</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>617</v>
+      </c>
+      <c r="E9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>641</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>618</v>
+      </c>
+      <c r="E10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>642</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11" t="s">
+        <v>581</v>
+      </c>
+      <c r="D11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E11" t="s">
+        <v>625</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>616</v>
+      </c>
+      <c r="E12" t="s">
+        <v>626</v>
+      </c>
+      <c r="F12" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>644</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>619</v>
+      </c>
+      <c r="E13" t="s">
+        <v>629</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>645</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C14" t="s">
+        <v>582</v>
+      </c>
+      <c r="D14" t="s">
+        <v>615</v>
+      </c>
+      <c r="E14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9.21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>646</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>616</v>
+      </c>
+      <c r="E15" t="s">
+        <v>626</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>647</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16" t="s">
+        <v>615</v>
+      </c>
+      <c r="E16" t="s">
+        <v>625</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.05</v>
+      </c>
+      <c r="G16" t="s">
+        <v>648</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>616</v>
+      </c>
+      <c r="E17" t="s">
+        <v>626</v>
+      </c>
+      <c r="F17" t="n">
+        <v>40.02</v>
+      </c>
+      <c r="G17" t="s">
+        <v>391</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D18" t="s">
+        <v>615</v>
+      </c>
+      <c r="E18" t="s">
+        <v>625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="G18" t="s">
+        <v>649</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>616</v>
+      </c>
+      <c r="E19" t="s">
+        <v>626</v>
+      </c>
+      <c r="F19" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="G19" t="s">
+        <v>392</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>619</v>
+      </c>
+      <c r="E20" t="s">
+        <v>629</v>
+      </c>
+      <c r="F20" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>650</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C21" t="s">
+        <v>585</v>
+      </c>
+      <c r="D21" t="s">
+        <v>615</v>
+      </c>
+      <c r="E21" t="s">
+        <v>625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>651</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>616</v>
+      </c>
+      <c r="E22" t="s">
+        <v>626</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="G22" t="s">
+        <v>652</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>617</v>
+      </c>
+      <c r="E23" t="s">
+        <v>627</v>
+      </c>
+      <c r="F23" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="G23" t="s">
+        <v>653</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E24" t="s">
+        <v>628</v>
+      </c>
+      <c r="F24" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="G24" t="s">
+        <v>654</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>620</v>
+      </c>
+      <c r="E25" t="s">
+        <v>630</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>655</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" t="s">
+        <v>548</v>
+      </c>
+      <c r="C26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D26" t="s">
+        <v>615</v>
+      </c>
+      <c r="E26" t="s">
+        <v>625</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>656</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>616</v>
+      </c>
+      <c r="E27" t="s">
+        <v>626</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="G27" t="s">
+        <v>657</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>617</v>
+      </c>
+      <c r="E28" t="s">
+        <v>627</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>658</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>618</v>
+      </c>
+      <c r="E29" t="s">
+        <v>628</v>
+      </c>
+      <c r="F29" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>659</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>620</v>
+      </c>
+      <c r="E30" t="s">
+        <v>630</v>
+      </c>
+      <c r="F30" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="G30" t="s">
+        <v>660</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>621</v>
+      </c>
+      <c r="E31" t="s">
+        <v>631</v>
+      </c>
+      <c r="F31" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>657</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>622</v>
+      </c>
+      <c r="E32" t="s">
+        <v>632</v>
+      </c>
+      <c r="F32" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>661</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>549</v>
+      </c>
+      <c r="C33" t="s">
+        <v>587</v>
+      </c>
+      <c r="D33" t="s">
+        <v>615</v>
+      </c>
+      <c r="E33" t="s">
+        <v>625</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G33" t="s">
+        <v>662</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>616</v>
+      </c>
+      <c r="E34" t="s">
+        <v>626</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>663</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>617</v>
+      </c>
+      <c r="E35" t="s">
+        <v>627</v>
+      </c>
+      <c r="F35" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>664</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>618</v>
+      </c>
+      <c r="E36" t="s">
+        <v>628</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>665</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>620</v>
+      </c>
+      <c r="E37" t="s">
+        <v>630</v>
+      </c>
+      <c r="F37" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>666</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>621</v>
+      </c>
+      <c r="E38" t="s">
+        <v>631</v>
+      </c>
+      <c r="F38" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>667</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" t="s">
+        <v>550</v>
+      </c>
+      <c r="C39" t="s">
+        <v>588</v>
+      </c>
+      <c r="D39" t="s">
+        <v>615</v>
+      </c>
+      <c r="E39" t="s">
+        <v>625</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>668</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>616</v>
+      </c>
+      <c r="E40" t="s">
+        <v>626</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>669</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>617</v>
+      </c>
+      <c r="E41" t="s">
+        <v>627</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>670</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>618</v>
+      </c>
+      <c r="E42" t="s">
+        <v>628</v>
+      </c>
+      <c r="F42" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="G42" t="s">
+        <v>671</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>620</v>
+      </c>
+      <c r="E43" t="s">
+        <v>630</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>672</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>621</v>
+      </c>
+      <c r="E44" t="s">
+        <v>631</v>
+      </c>
+      <c r="F44" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="G44" t="s">
+        <v>671</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
+        <v>551</v>
+      </c>
+      <c r="C45" t="s">
+        <v>589</v>
+      </c>
+      <c r="D45" t="s">
+        <v>615</v>
+      </c>
+      <c r="E45" t="s">
+        <v>625</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>673</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>616</v>
+      </c>
+      <c r="E46" t="s">
+        <v>626</v>
+      </c>
+      <c r="F46" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="G46" t="s">
+        <v>674</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" t="s">
+        <v>552</v>
+      </c>
+      <c r="C47" t="s">
+        <v>590</v>
+      </c>
+      <c r="D47" t="s">
+        <v>615</v>
+      </c>
+      <c r="E47" t="s">
+        <v>625</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>675</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>616</v>
+      </c>
+      <c r="E48" t="s">
+        <v>626</v>
+      </c>
+      <c r="F48" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>676</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>553</v>
+      </c>
+      <c r="C49" t="s">
+        <v>591</v>
+      </c>
+      <c r="D49" t="s">
+        <v>615</v>
+      </c>
+      <c r="E49" t="s">
+        <v>625</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>677</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>616</v>
+      </c>
+      <c r="E50" t="s">
+        <v>626</v>
+      </c>
+      <c r="F50" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="G50" t="s">
+        <v>678</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>617</v>
+      </c>
+      <c r="E51" t="s">
+        <v>627</v>
+      </c>
+      <c r="F51" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="G51" t="s">
+        <v>679</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>618</v>
+      </c>
+      <c r="E52" t="s">
+        <v>628</v>
+      </c>
+      <c r="F52" t="n">
+        <v>31.01</v>
+      </c>
+      <c r="G52" t="s">
+        <v>680</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>620</v>
+      </c>
+      <c r="E53" t="s">
+        <v>630</v>
+      </c>
+      <c r="F53" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>681</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C54" t="s">
+        <v>592</v>
+      </c>
+      <c r="D54" t="s">
+        <v>615</v>
+      </c>
+      <c r="E54" t="s">
+        <v>625</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>682</v>
+      </c>
+      <c r="H54" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>616</v>
+      </c>
+      <c r="E55" t="s">
+        <v>626</v>
+      </c>
+      <c r="F55" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="G55" t="s">
+        <v>683</v>
+      </c>
+      <c r="H55"/>
+    </row>
+    <row r="56">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56" t="s">
+        <v>619</v>
+      </c>
+      <c r="E56" t="s">
+        <v>629</v>
+      </c>
+      <c r="F56" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>684</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>617</v>
+      </c>
+      <c r="E57" t="s">
+        <v>627</v>
+      </c>
+      <c r="F57" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>685</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s">
+        <v>555</v>
+      </c>
+      <c r="C58" t="s">
+        <v>593</v>
+      </c>
+      <c r="D58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E58" t="s">
+        <v>625</v>
+      </c>
+      <c r="F58" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>686</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59" t="s">
+        <v>616</v>
+      </c>
+      <c r="E59" t="s">
+        <v>626</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="G59" t="s">
+        <v>687</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" t="s">
+        <v>617</v>
+      </c>
+      <c r="E60" t="s">
+        <v>627</v>
+      </c>
+      <c r="F60" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="G60" t="s">
+        <v>688</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
+        <v>556</v>
+      </c>
+      <c r="C61" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" t="s">
+        <v>615</v>
+      </c>
+      <c r="E61" t="s">
+        <v>625</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>689</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>616</v>
+      </c>
+      <c r="E62" t="s">
+        <v>626</v>
+      </c>
+      <c r="F62" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>690</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" t="s">
+        <v>557</v>
+      </c>
+      <c r="C63" t="s">
+        <v>595</v>
+      </c>
+      <c r="D63" t="s">
+        <v>615</v>
+      </c>
+      <c r="E63" t="s">
+        <v>625</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>691</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>616</v>
+      </c>
+      <c r="E64" t="s">
+        <v>626</v>
+      </c>
+      <c r="F64" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="G64" t="s">
+        <v>692</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65" t="s">
+        <v>619</v>
+      </c>
+      <c r="E65" t="s">
+        <v>629</v>
+      </c>
+      <c r="F65" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>693</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" t="s">
+        <v>558</v>
+      </c>
+      <c r="C66" t="s">
+        <v>596</v>
+      </c>
+      <c r="D66" t="s">
+        <v>615</v>
+      </c>
+      <c r="E66" t="s">
+        <v>625</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>694</v>
+      </c>
+      <c r="H66"/>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67" t="s">
+        <v>616</v>
+      </c>
+      <c r="E67" t="s">
+        <v>626</v>
+      </c>
+      <c r="F67" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="G67" t="s">
+        <v>695</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>617</v>
+      </c>
+      <c r="E68" t="s">
+        <v>627</v>
+      </c>
+      <c r="F68" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>696</v>
+      </c>
+      <c r="H68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" t="s">
+        <v>559</v>
+      </c>
+      <c r="C69" t="s">
+        <v>597</v>
+      </c>
+      <c r="D69" t="s">
+        <v>615</v>
+      </c>
+      <c r="E69" t="s">
+        <v>625</v>
+      </c>
+      <c r="F69" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>697</v>
+      </c>
+      <c r="H69"/>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>616</v>
+      </c>
+      <c r="E70" t="s">
+        <v>626</v>
+      </c>
+      <c r="F70" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>403</v>
+      </c>
+      <c r="H70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" t="s">
+        <v>560</v>
+      </c>
+      <c r="C71" t="s">
+        <v>598</v>
+      </c>
+      <c r="D71" t="s">
+        <v>615</v>
+      </c>
+      <c r="E71" t="s">
+        <v>625</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>698</v>
+      </c>
+      <c r="H71"/>
+    </row>
+    <row r="72">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>616</v>
+      </c>
+      <c r="E72" t="s">
+        <v>626</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>699</v>
+      </c>
+      <c r="H72"/>
+    </row>
+    <row r="73">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73" t="s">
+        <v>617</v>
+      </c>
+      <c r="E73" t="s">
+        <v>627</v>
+      </c>
+      <c r="F73" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="G73" t="s">
+        <v>700</v>
+      </c>
+      <c r="H73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" t="s">
+        <v>561</v>
+      </c>
+      <c r="C74" t="s">
+        <v>599</v>
+      </c>
+      <c r="D74" t="s">
+        <v>615</v>
+      </c>
+      <c r="E74" t="s">
+        <v>625</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>701</v>
+      </c>
+      <c r="H74"/>
+    </row>
+    <row r="75">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>616</v>
+      </c>
+      <c r="E75" t="s">
+        <v>626</v>
+      </c>
+      <c r="F75" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>702</v>
+      </c>
+      <c r="H75"/>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>617</v>
+      </c>
+      <c r="E76" t="s">
+        <v>627</v>
+      </c>
+      <c r="F76" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="G76" t="s">
+        <v>703</v>
+      </c>
+      <c r="H76"/>
+    </row>
+    <row r="77">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77" t="s">
+        <v>618</v>
+      </c>
+      <c r="E77" t="s">
+        <v>628</v>
+      </c>
+      <c r="F77" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="G77" t="s">
+        <v>704</v>
+      </c>
+      <c r="H77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s">
+        <v>562</v>
+      </c>
+      <c r="C78" t="s">
+        <v>600</v>
+      </c>
+      <c r="D78" t="s">
+        <v>615</v>
+      </c>
+      <c r="E78" t="s">
+        <v>625</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>705</v>
+      </c>
+      <c r="H78"/>
+    </row>
+    <row r="79">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79" t="s">
+        <v>616</v>
+      </c>
+      <c r="E79" t="s">
+        <v>626</v>
+      </c>
+      <c r="F79" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="G79" t="s">
+        <v>406</v>
+      </c>
+      <c r="H79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
+        <v>563</v>
+      </c>
+      <c r="C80" t="s">
+        <v>601</v>
+      </c>
+      <c r="D80" t="s">
+        <v>615</v>
+      </c>
+      <c r="E80" t="s">
+        <v>625</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>706</v>
+      </c>
+      <c r="H80"/>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81" t="s">
+        <v>616</v>
+      </c>
+      <c r="E81" t="s">
+        <v>626</v>
+      </c>
+      <c r="F81" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>707</v>
+      </c>
+      <c r="H81"/>
+    </row>
+    <row r="82">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82" t="s">
+        <v>617</v>
+      </c>
+      <c r="E82" t="s">
+        <v>627</v>
+      </c>
+      <c r="F82" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="G82" t="s">
+        <v>708</v>
+      </c>
+      <c r="H82"/>
+    </row>
+    <row r="83">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83" t="s">
+        <v>618</v>
+      </c>
+      <c r="E83" t="s">
+        <v>628</v>
+      </c>
+      <c r="F83" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="G83" t="s">
+        <v>709</v>
+      </c>
+      <c r="H83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" t="s">
+        <v>564</v>
+      </c>
+      <c r="C84" t="s">
+        <v>602</v>
+      </c>
+      <c r="D84" t="s">
+        <v>615</v>
+      </c>
+      <c r="E84" t="s">
+        <v>625</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>710</v>
+      </c>
+      <c r="H84"/>
+    </row>
+    <row r="85">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85" t="s">
+        <v>616</v>
+      </c>
+      <c r="E85" t="s">
+        <v>626</v>
+      </c>
+      <c r="F85" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>711</v>
+      </c>
+      <c r="H85"/>
+    </row>
+    <row r="86">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86" t="s">
+        <v>619</v>
+      </c>
+      <c r="E86" t="s">
+        <v>629</v>
+      </c>
+      <c r="F86" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>712</v>
+      </c>
+      <c r="H86"/>
+    </row>
+    <row r="87">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87" t="s">
+        <v>617</v>
+      </c>
+      <c r="E87" t="s">
+        <v>627</v>
+      </c>
+      <c r="F87" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="G87" t="s">
+        <v>713</v>
+      </c>
+      <c r="H87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C88" t="s">
+        <v>603</v>
+      </c>
+      <c r="D88" t="s">
+        <v>615</v>
+      </c>
+      <c r="E88" t="s">
+        <v>625</v>
+      </c>
+      <c r="F88" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="G88" t="s">
+        <v>714</v>
+      </c>
+      <c r="H88"/>
+    </row>
+    <row r="89">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89" t="s">
+        <v>616</v>
+      </c>
+      <c r="E89" t="s">
+        <v>626</v>
+      </c>
+      <c r="F89" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>715</v>
+      </c>
+      <c r="H89"/>
+    </row>
+    <row r="90">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90" t="s">
+        <v>617</v>
+      </c>
+      <c r="E90" t="s">
+        <v>627</v>
+      </c>
+      <c r="F90" t="n">
+        <v>48.23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>716</v>
+      </c>
+      <c r="H90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>228</v>
+      </c>
+      <c r="B91" t="s">
+        <v>566</v>
+      </c>
+      <c r="C91" t="s">
+        <v>604</v>
+      </c>
+      <c r="D91" t="s">
+        <v>615</v>
+      </c>
+      <c r="E91" t="s">
+        <v>625</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="G91" t="s">
+        <v>717</v>
+      </c>
+      <c r="H91"/>
+    </row>
+    <row r="92">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92" t="s">
+        <v>616</v>
+      </c>
+      <c r="E92" t="s">
+        <v>626</v>
+      </c>
+      <c r="F92" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="G92" t="s">
+        <v>718</v>
+      </c>
+      <c r="H92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" t="s">
+        <v>567</v>
+      </c>
+      <c r="C93" t="s">
+        <v>605</v>
+      </c>
+      <c r="D93" t="s">
+        <v>615</v>
+      </c>
+      <c r="E93" t="s">
+        <v>625</v>
+      </c>
+      <c r="F93" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="G93" t="s">
+        <v>719</v>
+      </c>
+      <c r="H93"/>
+    </row>
+    <row r="94">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94" t="s">
+        <v>616</v>
+      </c>
+      <c r="E94" t="s">
+        <v>626</v>
+      </c>
+      <c r="F94" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="G94" t="s">
+        <v>720</v>
+      </c>
+      <c r="H94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C95" t="s">
+        <v>606</v>
+      </c>
+      <c r="D95" t="s">
+        <v>615</v>
+      </c>
+      <c r="E95" t="s">
+        <v>625</v>
+      </c>
+      <c r="F95" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="G95" t="s">
+        <v>721</v>
+      </c>
+      <c r="H95"/>
+    </row>
+    <row r="96">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96" t="s">
+        <v>616</v>
+      </c>
+      <c r="E96" t="s">
+        <v>626</v>
+      </c>
+      <c r="F96" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>722</v>
+      </c>
+      <c r="H96"/>
+    </row>
+    <row r="97">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97" t="s">
+        <v>619</v>
+      </c>
+      <c r="E97" t="s">
+        <v>629</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>723</v>
+      </c>
+      <c r="H97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" t="s">
+        <v>569</v>
+      </c>
+      <c r="C98" t="s">
+        <v>607</v>
+      </c>
+      <c r="D98" t="s">
+        <v>615</v>
+      </c>
+      <c r="E98" t="s">
+        <v>625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>724</v>
+      </c>
+      <c r="H98"/>
+    </row>
+    <row r="99">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99" t="s">
+        <v>616</v>
+      </c>
+      <c r="E99" t="s">
+        <v>626</v>
+      </c>
+      <c r="F99" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="G99" t="s">
+        <v>725</v>
+      </c>
+      <c r="H99"/>
+    </row>
+    <row r="100">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100" t="s">
+        <v>619</v>
+      </c>
+      <c r="E100" t="s">
+        <v>629</v>
+      </c>
+      <c r="F100" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>726</v>
+      </c>
+      <c r="H100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B101" t="s">
+        <v>570</v>
+      </c>
+      <c r="C101" t="s">
+        <v>608</v>
+      </c>
+      <c r="D101" t="s">
+        <v>615</v>
+      </c>
+      <c r="E101" t="s">
+        <v>625</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="G101" t="s">
+        <v>727</v>
+      </c>
+      <c r="H101"/>
+    </row>
+    <row r="102">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102" t="s">
+        <v>616</v>
+      </c>
+      <c r="E102" t="s">
+        <v>626</v>
+      </c>
+      <c r="F102" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="G102" t="s">
+        <v>728</v>
+      </c>
+      <c r="H102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103" t="s">
+        <v>571</v>
+      </c>
+      <c r="C103" t="s">
+        <v>609</v>
+      </c>
+      <c r="D103" t="s">
+        <v>615</v>
+      </c>
+      <c r="E103" t="s">
+        <v>625</v>
+      </c>
+      <c r="F103" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="G103" t="s">
+        <v>729</v>
+      </c>
+      <c r="H103"/>
+    </row>
+    <row r="104">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104" t="s">
+        <v>616</v>
+      </c>
+      <c r="E104" t="s">
+        <v>626</v>
+      </c>
+      <c r="F104" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="G104" t="s">
+        <v>730</v>
+      </c>
+      <c r="H104"/>
+    </row>
+    <row r="105">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105" t="s">
+        <v>617</v>
+      </c>
+      <c r="E105" t="s">
+        <v>627</v>
+      </c>
+      <c r="F105" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>731</v>
+      </c>
+      <c r="H105"/>
+    </row>
+    <row r="106">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106" t="s">
+        <v>618</v>
+      </c>
+      <c r="E106" t="s">
+        <v>628</v>
+      </c>
+      <c r="F106" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>732</v>
+      </c>
+      <c r="H106"/>
+    </row>
+    <row r="107">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107" t="s">
+        <v>620</v>
+      </c>
+      <c r="E107" t="s">
+        <v>630</v>
+      </c>
+      <c r="F107" t="n">
+        <v>36.03</v>
+      </c>
+      <c r="G107" t="s">
+        <v>733</v>
+      </c>
+      <c r="H107"/>
+    </row>
+    <row r="108">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108" t="s">
+        <v>621</v>
+      </c>
+      <c r="E108" t="s">
+        <v>631</v>
+      </c>
+      <c r="F108" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>734</v>
+      </c>
+      <c r="H108"/>
+    </row>
+    <row r="109">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109" t="s">
+        <v>622</v>
+      </c>
+      <c r="E109" t="s">
+        <v>632</v>
+      </c>
+      <c r="F109" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="G109" t="s">
+        <v>735</v>
+      </c>
+      <c r="H109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" t="s">
+        <v>572</v>
+      </c>
+      <c r="C110" t="s">
+        <v>610</v>
+      </c>
+      <c r="D110" t="s">
+        <v>615</v>
+      </c>
+      <c r="E110" t="s">
+        <v>625</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>736</v>
+      </c>
+      <c r="H110"/>
+    </row>
+    <row r="111">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111" t="s">
+        <v>616</v>
+      </c>
+      <c r="E111" t="s">
+        <v>626</v>
+      </c>
+      <c r="F111" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>737</v>
+      </c>
+      <c r="H111"/>
+    </row>
+    <row r="112">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112" t="s">
+        <v>617</v>
+      </c>
+      <c r="E112" t="s">
+        <v>627</v>
+      </c>
+      <c r="F112" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="G112" t="s">
+        <v>738</v>
+      </c>
+      <c r="H112"/>
+    </row>
+    <row r="113">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113" t="s">
+        <v>618</v>
+      </c>
+      <c r="E113" t="s">
+        <v>628</v>
+      </c>
+      <c r="F113" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>739</v>
+      </c>
+      <c r="H113"/>
+    </row>
+    <row r="114">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114" t="s">
+        <v>620</v>
+      </c>
+      <c r="E114" t="s">
+        <v>630</v>
+      </c>
+      <c r="F114" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>740</v>
+      </c>
+      <c r="H114"/>
+    </row>
+    <row r="115">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115" t="s">
+        <v>621</v>
+      </c>
+      <c r="E115" t="s">
+        <v>631</v>
+      </c>
+      <c r="F115" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>741</v>
+      </c>
+      <c r="H115"/>
+    </row>
+    <row r="116">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116" t="s">
+        <v>622</v>
+      </c>
+      <c r="E116" t="s">
+        <v>632</v>
+      </c>
+      <c r="F116" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>663</v>
+      </c>
+      <c r="H116"/>
+    </row>
+    <row r="117">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117" t="s">
+        <v>623</v>
+      </c>
+      <c r="E117" t="s">
+        <v>633</v>
+      </c>
+      <c r="F117" t="n">
+        <v>47.12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>742</v>
+      </c>
+      <c r="H117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>573</v>
+      </c>
+      <c r="C118" t="s">
+        <v>611</v>
+      </c>
+      <c r="D118" t="s">
+        <v>615</v>
+      </c>
+      <c r="E118" t="s">
+        <v>625</v>
+      </c>
+      <c r="F118" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="G118" t="s">
+        <v>743</v>
+      </c>
+      <c r="H118"/>
+    </row>
+    <row r="119">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119" t="s">
+        <v>616</v>
+      </c>
+      <c r="E119" t="s">
+        <v>626</v>
+      </c>
+      <c r="F119" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>744</v>
+      </c>
+      <c r="H119"/>
+    </row>
+    <row r="120">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120" t="s">
+        <v>617</v>
+      </c>
+      <c r="E120" t="s">
+        <v>627</v>
+      </c>
+      <c r="F120" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>745</v>
+      </c>
+      <c r="H120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" t="s">
+        <v>574</v>
+      </c>
+      <c r="C121" t="s">
+        <v>612</v>
+      </c>
+      <c r="D121" t="s">
+        <v>615</v>
+      </c>
+      <c r="E121" t="s">
+        <v>625</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="G121" t="s">
         <v>746</v>
       </c>
+      <c r="H121"/>
+    </row>
+    <row r="122">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122" t="s">
+        <v>616</v>
+      </c>
+      <c r="E122" t="s">
+        <v>626</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>747</v>
+      </c>
+      <c r="H122"/>
+    </row>
+    <row r="123">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123" t="s">
+        <v>617</v>
+      </c>
+      <c r="E123" t="s">
+        <v>627</v>
+      </c>
+      <c r="F123" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>748</v>
+      </c>
+      <c r="H123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" t="s">
+        <v>575</v>
+      </c>
+      <c r="C124" t="s">
+        <v>613</v>
+      </c>
+      <c r="D124" t="s">
+        <v>615</v>
+      </c>
+      <c r="E124" t="s">
+        <v>625</v>
+      </c>
+      <c r="F124" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>749</v>
+      </c>
+      <c r="H124"/>
+    </row>
+    <row r="125">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125" t="s">
+        <v>616</v>
+      </c>
+      <c r="E125" t="s">
+        <v>626</v>
+      </c>
+      <c r="F125" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>750</v>
+      </c>
+      <c r="H125"/>
+    </row>
+    <row r="126">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126" t="s">
+        <v>619</v>
+      </c>
+      <c r="E126" t="s">
+        <v>629</v>
+      </c>
+      <c r="F126" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>751</v>
+      </c>
+      <c r="H126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" t="s">
+        <v>576</v>
+      </c>
+      <c r="C127" t="s">
+        <v>583</v>
+      </c>
+      <c r="D127" t="s">
+        <v>615</v>
+      </c>
+      <c r="E127" t="s">
+        <v>625</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="G127" t="s">
+        <v>752</v>
+      </c>
+      <c r="H127"/>
+    </row>
+    <row r="128">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128" t="s">
+        <v>616</v>
+      </c>
+      <c r="E128" t="s">
+        <v>626</v>
+      </c>
+      <c r="F128" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>753</v>
+      </c>
+      <c r="H128"/>
+    </row>
+    <row r="129">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129" t="s">
+        <v>617</v>
+      </c>
+      <c r="E129" t="s">
+        <v>627</v>
+      </c>
+      <c r="F129" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="G129" t="s">
+        <v>754</v>
+      </c>
+      <c r="H129"/>
+    </row>
+    <row r="130">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130" t="s">
+        <v>618</v>
+      </c>
+      <c r="E130" t="s">
+        <v>628</v>
+      </c>
+      <c r="F130" t="n">
+        <v>39.09</v>
+      </c>
+      <c r="G130" t="s">
+        <v>755</v>
+      </c>
+      <c r="H130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" t="s">
+        <v>577</v>
+      </c>
+      <c r="C131" t="s">
+        <v>614</v>
+      </c>
+      <c r="D131" t="s">
+        <v>615</v>
+      </c>
+      <c r="E131" t="s">
+        <v>625</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9.03</v>
+      </c>
+      <c r="G131" t="s">
+        <v>756</v>
+      </c>
+      <c r="H131" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132" t="s">
+        <v>616</v>
+      </c>
+      <c r="E132" t="s">
+        <v>626</v>
+      </c>
+      <c r="F132" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="G132" t="s">
+        <v>757</v>
+      </c>
+      <c r="H132"/>
+    </row>
+    <row r="133">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133" t="s">
+        <v>617</v>
+      </c>
+      <c r="E133" t="s">
+        <v>627</v>
+      </c>
+      <c r="F133" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>679</v>
+      </c>
+      <c r="H133"/>
+    </row>
+    <row r="134">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134" t="s">
+        <v>624</v>
+      </c>
+      <c r="E134" t="s">
+        <v>634</v>
+      </c>
+      <c r="F134" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="G134" t="s">
+        <v>758</v>
+      </c>
+      <c r="H134"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>764</v>
+      </c>
       <c r="B2" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="B5" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="B6" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="B8" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="B9" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="B10" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="B11" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="B12" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="B13" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="B14" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="B15" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="B16" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="B17" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="B18" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="B19" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="B20" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="B21" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="B22" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="B23" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="B24" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="B25" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="B26" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="B27" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="B28" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="B29" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="B30" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="B31" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="B32" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="B33" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="B34" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="B35" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="B36" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="B37" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="B38" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="B39" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="B40" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="B41" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="B42" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="B43" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="B44" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="B45" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="B46" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="B47" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="B48" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="B49" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="B50" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="B51" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="B52" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="B53" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="B54" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="B55" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="B56" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B57" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="B58" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="B59" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="B60" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="B61" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="B62" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="B63" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="B64" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="B65" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="B66" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="B67" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="B68" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="B69" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="B70" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="B71" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="B72" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="B73" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="B74" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="B75" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="B76" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="B77" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
